--- a/Tài liệu/users_data_bomondiendientu.xlsx
+++ b/Tài liệu/users_data_bomondiendientu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
   <si>
     <t>TENDANGNHAP</t>
   </si>
@@ -53,65 +53,137 @@
     <t>Đang hoạt động</t>
   </si>
   <si>
-    <t>Bộ môn Cơ khí - Động lực</t>
-  </si>
-  <si>
-    <t>Cao Thanh Duy</t>
-  </si>
-  <si>
     <t>Giảng viên</t>
   </si>
   <si>
-    <t>Dương Minh Hùng</t>
-  </si>
-  <si>
-    <t>Ngô Thanh Hà</t>
-  </si>
-  <si>
-    <t>Phan Văn Tuân</t>
-  </si>
-  <si>
-    <t>Phạm Vũ Phong</t>
-  </si>
-  <si>
-    <t>Thạch Ngọc Phúc</t>
-  </si>
-  <si>
-    <t>Huỳnh Thanh Bảnh</t>
-  </si>
-  <si>
-    <t>Trần Huyền Trân</t>
-  </si>
-  <si>
-    <t>Tăng Tấn Minh</t>
-  </si>
-  <si>
-    <t>Đặng Hoàng Vũ</t>
-  </si>
-  <si>
-    <t>Nguyễn Vũ Lực</t>
-  </si>
-  <si>
     <t>Phó Trưởng Bộ Môn</t>
   </si>
   <si>
-    <t>Nguyễn Khắc Bằng</t>
-  </si>
-  <si>
-    <t>Trương Văn Mến</t>
-  </si>
-  <si>
-    <t>Phan Tấn Tài</t>
-  </si>
-  <si>
     <t>Trưởng Bộ Môn</t>
+  </si>
+  <si>
+    <t>Cao Phương Thảo</t>
+  </si>
+  <si>
+    <t>Lê Minh Hải</t>
+  </si>
+  <si>
+    <t>Trần Song Toàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hiệu</t>
+  </si>
+  <si>
+    <t>Phạm Tấn Hưng</t>
+  </si>
+  <si>
+    <t>Đặng Hoàng Minh</t>
+  </si>
+  <si>
+    <t>Triệu Quốc Huy</t>
+  </si>
+  <si>
+    <t>Thạch Thị Via Sa Na</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Phạm Minh Triết</t>
+  </si>
+  <si>
+    <t>Phan Thế Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tần</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Vũ</t>
+  </si>
+  <si>
+    <t>Lê Thành Nam</t>
+  </si>
+  <si>
+    <t>Lê Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Kim Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Đặng Hữu Phúc</t>
+  </si>
+  <si>
+    <t>Bộ môn Điện - Điện tử</t>
+  </si>
+  <si>
+    <t>cpthao@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>lmhai@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>tstoan1512@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>nthien@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>ndhieu@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>pthung@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>hoangminh@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>tqhuy@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>viasana@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>thuybui@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>minhtriet@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>thehieu@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanhtantvu@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>nntien@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>nghvu@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>ltnam@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>lttung@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>katuan@tvu.edu.vn</t>
+  </si>
+  <si>
+    <t>danghuuphuc@tvu.edu.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +191,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,14 +246,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +580,7 @@
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +603,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -472,17 +616,20 @@
       <c r="D2">
         <v>20000</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -492,17 +639,20 @@
       <c r="D3">
         <v>20001</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -512,17 +662,20 @@
       <c r="D4">
         <v>20002</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -532,17 +685,20 @@
       <c r="D5">
         <v>20003</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -552,17 +708,20 @@
       <c r="D6">
         <v>20004</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -572,17 +731,20 @@
       <c r="D7">
         <v>20005</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -592,17 +754,20 @@
       <c r="D8">
         <v>20006</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -612,17 +777,20 @@
       <c r="D9">
         <v>20007</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -632,17 +800,20 @@
       <c r="D10">
         <v>20008</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -652,17 +823,20 @@
       <c r="D11">
         <v>20009</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -672,17 +846,20 @@
       <c r="D12">
         <v>20010</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -692,17 +869,20 @@
       <c r="D13">
         <v>20011</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -712,17 +892,20 @@
       <c r="D14">
         <v>20012</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -732,17 +915,141 @@
       <c r="D15">
         <v>20013</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>20014</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
         <v>26</v>
       </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>20015</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>20016</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>20017</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>20018</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId3"/>
+    <hyperlink ref="A12" r:id="rId4"/>
+    <hyperlink ref="A16" r:id="rId5"/>
+    <hyperlink ref="A20" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>